--- a/强化数据.xlsx
+++ b/强化数据.xlsx
@@ -151,7 +151,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本卡牌1阶段的经验值*升阶所用卡牌数量+吸收卡牌经验值总量*50%</t>
+    <t>本卡牌1阶段的经验值+升阶所用卡牌数量+吸收卡牌经验值总量*50%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +505,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
